--- a/natmiOut/OldD4/LR-pairs_lrc2p/Icam1-Itgb2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Icam1-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.6189606114005</v>
+        <v>22.481209</v>
       </c>
       <c r="H2">
-        <v>19.6189606114005</v>
+        <v>67.44362700000001</v>
       </c>
       <c r="I2">
-        <v>0.1658231650951863</v>
+        <v>0.1656226259370683</v>
       </c>
       <c r="J2">
-        <v>0.1658231650951863</v>
+        <v>0.166106832923046</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>88.2823593152297</v>
+        <v>0.1439186666666667</v>
       </c>
       <c r="N2">
-        <v>88.2823593152297</v>
+        <v>0.431756</v>
       </c>
       <c r="O2">
-        <v>0.410604801657064</v>
+        <v>0.0006023827659685291</v>
       </c>
       <c r="P2">
-        <v>0.410604801657064</v>
+        <v>0.0006028968122478276</v>
       </c>
       <c r="Q2">
-        <v>1732.008130086997</v>
+        <v>3.235465624334667</v>
       </c>
       <c r="R2">
-        <v>1732.008130086997</v>
+        <v>29.119190619012</v>
       </c>
       <c r="S2">
-        <v>0.06808778781405553</v>
+        <v>9.976821551894228E-05</v>
       </c>
       <c r="T2">
-        <v>0.06808778781405553</v>
+        <v>0.0001001452800618869</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.6189606114005</v>
+        <v>22.481209</v>
       </c>
       <c r="H3">
-        <v>19.6189606114005</v>
+        <v>67.44362700000001</v>
       </c>
       <c r="I3">
-        <v>0.1658231650951863</v>
+        <v>0.1656226259370683</v>
       </c>
       <c r="J3">
-        <v>0.1658231650951863</v>
+        <v>0.166106832923046</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>126.723307834671</v>
+        <v>0.1134506666666667</v>
       </c>
       <c r="N3">
-        <v>126.723307834671</v>
+        <v>0.340352</v>
       </c>
       <c r="O3">
-        <v>0.589395198342936</v>
+        <v>0.0004748565837253468</v>
       </c>
       <c r="P3">
-        <v>0.589395198342936</v>
+        <v>0.0004752618049133599</v>
       </c>
       <c r="Q3">
-        <v>2486.179584954791</v>
+        <v>2.550508148522667</v>
       </c>
       <c r="R3">
-        <v>2486.179584954791</v>
+        <v>22.954573336704</v>
       </c>
       <c r="S3">
-        <v>0.09773537728113073</v>
+        <v>7.864699434009729E-05</v>
       </c>
       <c r="T3">
-        <v>0.09773537728113073</v>
+        <v>7.894423322344875E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -658,57 +658,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.3320318614859</v>
+        <v>22.481209</v>
       </c>
       <c r="H4">
-        <v>28.3320318614859</v>
+        <v>67.44362700000001</v>
       </c>
       <c r="I4">
-        <v>0.2394676909702955</v>
+        <v>0.1656226259370683</v>
       </c>
       <c r="J4">
-        <v>0.2394676909702955</v>
+        <v>0.166106832923046</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>88.2823593152297</v>
+        <v>99.31538866666666</v>
       </c>
       <c r="N4">
-        <v>88.2823593152297</v>
+        <v>297.946166</v>
       </c>
       <c r="O4">
-        <v>0.410604801657064</v>
+        <v>0.4156922789371741</v>
       </c>
       <c r="P4">
-        <v>0.410604801657064</v>
+        <v>0.4160470119763526</v>
       </c>
       <c r="Q4">
-        <v>2501.218616926234</v>
+        <v>2232.730009531565</v>
       </c>
       <c r="R4">
-        <v>2501.218616926234</v>
+        <v>20094.57008578409</v>
       </c>
       <c r="S4">
-        <v>0.09832658375413326</v>
+        <v>0.06884804681933905</v>
       </c>
       <c r="T4">
-        <v>0.09832658375413326</v>
+        <v>0.06910825150648851</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.3320318614859</v>
+        <v>22.481209</v>
       </c>
       <c r="H5">
-        <v>28.3320318614859</v>
+        <v>67.44362700000001</v>
       </c>
       <c r="I5">
-        <v>0.2394676909702955</v>
+        <v>0.1656226259370683</v>
       </c>
       <c r="J5">
-        <v>0.2394676909702955</v>
+        <v>0.166106832923046</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>126.723307834671</v>
+        <v>138.7317683333333</v>
       </c>
       <c r="N5">
-        <v>126.723307834671</v>
+        <v>416.195305</v>
       </c>
       <c r="O5">
-        <v>0.589395198342936</v>
+        <v>0.5806725998226211</v>
       </c>
       <c r="P5">
-        <v>0.589395198342936</v>
+        <v>0.5811681196254651</v>
       </c>
       <c r="Q5">
-        <v>3590.328795164784</v>
+        <v>3118.857878841248</v>
       </c>
       <c r="R5">
-        <v>3590.328795164784</v>
+        <v>28069.72090957124</v>
       </c>
       <c r="S5">
-        <v>0.1411411072161622</v>
+        <v>0.09617252079232695</v>
       </c>
       <c r="T5">
-        <v>0.1411411072161622</v>
+        <v>0.09653599574682793</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.8613746487719</v>
+        <v>22.481209</v>
       </c>
       <c r="H6">
-        <v>29.8613746487719</v>
+        <v>67.44362700000001</v>
       </c>
       <c r="I6">
-        <v>0.2523939854120047</v>
+        <v>0.1656226259370683</v>
       </c>
       <c r="J6">
-        <v>0.2523939854120047</v>
+        <v>0.166106832923046</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>88.2823593152297</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N6">
-        <v>88.2823593152297</v>
+        <v>1.222236</v>
       </c>
       <c r="O6">
-        <v>0.410604801657064</v>
+        <v>0.002557881890510999</v>
       </c>
       <c r="P6">
-        <v>0.410604801657064</v>
+        <v>0.001706709781021076</v>
       </c>
       <c r="Q6">
-        <v>2636.232606389572</v>
+        <v>13.738671481662</v>
       </c>
       <c r="R6">
-        <v>2636.232606389572</v>
+        <v>82.43202888997202</v>
       </c>
       <c r="S6">
-        <v>0.1036341823195321</v>
+        <v>0.0004236431155433043</v>
       </c>
       <c r="T6">
-        <v>0.1036341823195321</v>
+        <v>0.0002834961564441964</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.8613746487719</v>
+        <v>29.50180766666667</v>
       </c>
       <c r="H7">
-        <v>29.8613746487719</v>
+        <v>88.50542300000001</v>
       </c>
       <c r="I7">
-        <v>0.2523939854120047</v>
+        <v>0.2173444878184117</v>
       </c>
       <c r="J7">
-        <v>0.2523939854120047</v>
+        <v>0.2179799065528387</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>126.723307834671</v>
+        <v>0.1439186666666667</v>
       </c>
       <c r="N7">
-        <v>126.723307834671</v>
+        <v>0.431756</v>
       </c>
       <c r="O7">
-        <v>0.589395198342936</v>
+        <v>0.0006023827659685291</v>
       </c>
       <c r="P7">
-        <v>0.589395198342936</v>
+        <v>0.0006028968122478276</v>
       </c>
       <c r="Q7">
-        <v>3784.132171982762</v>
+        <v>4.245860823643111</v>
       </c>
       <c r="R7">
-        <v>3784.132171982762</v>
+        <v>38.212747412788</v>
       </c>
       <c r="S7">
-        <v>0.1487598030924726</v>
+        <v>0.0001309245737400681</v>
       </c>
       <c r="T7">
-        <v>0.1487598030924726</v>
+        <v>0.0001314193907947858</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>39.328016970482</v>
+        <v>29.50180766666667</v>
       </c>
       <c r="H8">
-        <v>39.328016970482</v>
+        <v>88.50542300000001</v>
       </c>
       <c r="I8">
-        <v>0.3324078364871638</v>
+        <v>0.2173444878184117</v>
       </c>
       <c r="J8">
-        <v>0.3324078364871638</v>
+        <v>0.2179799065528387</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>88.2823593152297</v>
+        <v>0.1134506666666667</v>
       </c>
       <c r="N8">
-        <v>88.2823593152297</v>
+        <v>0.340352</v>
       </c>
       <c r="O8">
-        <v>0.410604801657064</v>
+        <v>0.0004748565837253468</v>
       </c>
       <c r="P8">
-        <v>0.410604801657064</v>
+        <v>0.0004752618049133599</v>
       </c>
       <c r="Q8">
-        <v>3471.970125343543</v>
+        <v>3.346999747655111</v>
       </c>
       <c r="R8">
-        <v>3471.970125343543</v>
+        <v>30.122997728896</v>
       </c>
       <c r="S8">
-        <v>0.1364882537700656</v>
+        <v>0.0001032074609769862</v>
       </c>
       <c r="T8">
-        <v>0.1364882537700656</v>
+        <v>0.0001035975238231477</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>39.328016970482</v>
+        <v>29.50180766666667</v>
       </c>
       <c r="H9">
-        <v>39.328016970482</v>
+        <v>88.50542300000001</v>
       </c>
       <c r="I9">
-        <v>0.3324078364871638</v>
+        <v>0.2173444878184117</v>
       </c>
       <c r="J9">
-        <v>0.3324078364871638</v>
+        <v>0.2179799065528387</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>126.723307834671</v>
+        <v>99.31538866666666</v>
       </c>
       <c r="N9">
-        <v>126.723307834671</v>
+        <v>297.946166</v>
       </c>
       <c r="O9">
-        <v>0.589395198342936</v>
+        <v>0.4156922789371741</v>
       </c>
       <c r="P9">
-        <v>0.589395198342936</v>
+        <v>0.4160470119763526</v>
       </c>
       <c r="Q9">
-        <v>4983.776401077555</v>
+        <v>2929.983494784246</v>
       </c>
       <c r="R9">
-        <v>4983.776401077555</v>
+        <v>26369.85145305822</v>
       </c>
       <c r="S9">
-        <v>0.1959195827170981</v>
+        <v>0.09034842545566843</v>
       </c>
       <c r="T9">
-        <v>0.1959195827170981</v>
+        <v>0.09068988879219311</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,1047 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.17216047989684</v>
+        <v>29.50180766666667</v>
       </c>
       <c r="H10">
-        <v>1.17216047989684</v>
+        <v>88.50542300000001</v>
       </c>
       <c r="I10">
-        <v>0.009907322035349725</v>
+        <v>0.2173444878184117</v>
       </c>
       <c r="J10">
-        <v>0.009907322035349725</v>
+        <v>0.2179799065528387</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>88.2823593152297</v>
+        <v>138.7317683333333</v>
       </c>
       <c r="N10">
-        <v>88.2823593152297</v>
+        <v>416.195305</v>
       </c>
       <c r="O10">
-        <v>0.410604801657064</v>
+        <v>0.5806725998226211</v>
       </c>
       <c r="P10">
-        <v>0.410604801657064</v>
+        <v>0.5811681196254651</v>
       </c>
       <c r="Q10">
-        <v>103.4810926613649</v>
+        <v>4092.837946626557</v>
       </c>
       <c r="R10">
-        <v>103.4810926613649</v>
+        <v>36835.54151963902</v>
       </c>
       <c r="S10">
-        <v>0.004067993999277433</v>
+        <v>0.1262059887986331</v>
       </c>
       <c r="T10">
-        <v>0.004067993999277433</v>
+        <v>0.1266829724074479</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>29.50180766666667</v>
+      </c>
+      <c r="H11">
+        <v>88.50542300000001</v>
+      </c>
+      <c r="I11">
+        <v>0.2173444878184117</v>
+      </c>
+      <c r="J11">
+        <v>0.2179799065528387</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.6111180000000001</v>
+      </c>
+      <c r="N11">
+        <v>1.222236</v>
+      </c>
+      <c r="O11">
+        <v>0.002557881890510999</v>
+      </c>
+      <c r="P11">
+        <v>0.001706709781021076</v>
+      </c>
+      <c r="Q11">
+        <v>18.029085697638</v>
+      </c>
+      <c r="R11">
+        <v>108.174514185828</v>
+      </c>
+      <c r="S11">
+        <v>0.0005559415293931037</v>
+      </c>
+      <c r="T11">
+        <v>0.00037202843857979</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>42.765269</v>
+      </c>
+      <c r="H12">
+        <v>128.295807</v>
+      </c>
+      <c r="I12">
+        <v>0.3150585073376215</v>
+      </c>
+      <c r="J12">
+        <v>0.3159795984589671</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1439186666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.431756</v>
+      </c>
+      <c r="O12">
+        <v>0.0006023827659685291</v>
+      </c>
+      <c r="P12">
+        <v>0.0006028968122478276</v>
+      </c>
+      <c r="Q12">
+        <v>6.154720494121332</v>
+      </c>
+      <c r="R12">
+        <v>55.392484447092</v>
+      </c>
+      <c r="S12">
+        <v>0.0001897858150919526</v>
+      </c>
+      <c r="T12">
+        <v>0.0001905030926462598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>42.765269</v>
+      </c>
+      <c r="H13">
+        <v>128.295807</v>
+      </c>
+      <c r="I13">
+        <v>0.3150585073376215</v>
+      </c>
+      <c r="J13">
+        <v>0.3159795984589671</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.1134506666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.340352</v>
+      </c>
+      <c r="O13">
+        <v>0.0004748565837253468</v>
+      </c>
+      <c r="P13">
+        <v>0.0004752618049133599</v>
+      </c>
+      <c r="Q13">
+        <v>4.851748278229333</v>
+      </c>
+      <c r="R13">
+        <v>43.665734504064</v>
+      </c>
+      <c r="S13">
+        <v>0.00014960760646795</v>
+      </c>
+      <c r="T13">
+        <v>0.0001501730342794074</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>42.765269</v>
+      </c>
+      <c r="H14">
+        <v>128.295807</v>
+      </c>
+      <c r="I14">
+        <v>0.3150585073376215</v>
+      </c>
+      <c r="J14">
+        <v>0.3159795984589671</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>99.31538866666666</v>
+      </c>
+      <c r="N14">
+        <v>297.946166</v>
+      </c>
+      <c r="O14">
+        <v>0.4156922789371741</v>
+      </c>
+      <c r="P14">
+        <v>0.4160470119763526</v>
+      </c>
+      <c r="Q14">
+        <v>4247.249312169551</v>
+      </c>
+      <c r="R14">
+        <v>38225.24380952596</v>
+      </c>
+      <c r="S14">
+        <v>0.1309673889137203</v>
+      </c>
+      <c r="T14">
+        <v>0.1314623677843409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.17216047989684</v>
-      </c>
-      <c r="H11">
-        <v>1.17216047989684</v>
-      </c>
-      <c r="I11">
-        <v>0.009907322035349725</v>
-      </c>
-      <c r="J11">
-        <v>0.009907322035349725</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>126.723307834671</v>
-      </c>
-      <c r="N11">
-        <v>126.723307834671</v>
-      </c>
-      <c r="O11">
-        <v>0.589395198342936</v>
-      </c>
-      <c r="P11">
-        <v>0.589395198342936</v>
-      </c>
-      <c r="Q11">
-        <v>148.5400533256029</v>
-      </c>
-      <c r="R11">
-        <v>148.5400533256029</v>
-      </c>
-      <c r="S11">
-        <v>0.005839328036072291</v>
-      </c>
-      <c r="T11">
-        <v>0.005839328036072291</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>42.765269</v>
+      </c>
+      <c r="H15">
+        <v>128.295807</v>
+      </c>
+      <c r="I15">
+        <v>0.3150585073376215</v>
+      </c>
+      <c r="J15">
+        <v>0.3159795984589671</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>138.7317683333333</v>
+      </c>
+      <c r="N15">
+        <v>416.195305</v>
+      </c>
+      <c r="O15">
+        <v>0.5806725998226211</v>
+      </c>
+      <c r="P15">
+        <v>0.5811681196254651</v>
+      </c>
+      <c r="Q15">
+        <v>5932.90139162068</v>
+      </c>
+      <c r="R15">
+        <v>53396.11252458613</v>
+      </c>
+      <c r="S15">
+        <v>0.182945842551971</v>
+      </c>
+      <c r="T15">
+        <v>0.1836372690764074</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>42.765269</v>
+      </c>
+      <c r="H16">
+        <v>128.295807</v>
+      </c>
+      <c r="I16">
+        <v>0.3150585073376215</v>
+      </c>
+      <c r="J16">
+        <v>0.3159795984589671</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.6111180000000001</v>
+      </c>
+      <c r="N16">
+        <v>1.222236</v>
+      </c>
+      <c r="O16">
+        <v>0.002557881890510999</v>
+      </c>
+      <c r="P16">
+        <v>0.001706709781021076</v>
+      </c>
+      <c r="Q16">
+        <v>26.134625660742</v>
+      </c>
+      <c r="R16">
+        <v>156.807753964452</v>
+      </c>
+      <c r="S16">
+        <v>0.0008058824503703287</v>
+      </c>
+      <c r="T16">
+        <v>0.0005392854712930313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>39.80222300000001</v>
+      </c>
+      <c r="H17">
+        <v>119.406669</v>
+      </c>
+      <c r="I17">
+        <v>0.2932292783449848</v>
+      </c>
+      <c r="J17">
+        <v>0.2940865504976542</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1439186666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.431756</v>
+      </c>
+      <c r="O17">
+        <v>0.0006023827659685291</v>
+      </c>
+      <c r="P17">
+        <v>0.0006028968122478276</v>
+      </c>
+      <c r="Q17">
+        <v>5.728282864529334</v>
+      </c>
+      <c r="R17">
+        <v>51.554545780764</v>
+      </c>
+      <c r="S17">
+        <v>0.0001766362637524077</v>
+      </c>
+      <c r="T17">
+        <v>0.0001773038438199955</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>39.80222300000001</v>
+      </c>
+      <c r="H18">
+        <v>119.406669</v>
+      </c>
+      <c r="I18">
+        <v>0.2932292783449848</v>
+      </c>
+      <c r="J18">
+        <v>0.2940865504976542</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.1134506666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.340352</v>
+      </c>
+      <c r="O18">
+        <v>0.0004748565837253468</v>
+      </c>
+      <c r="P18">
+        <v>0.0004752618049133599</v>
+      </c>
+      <c r="Q18">
+        <v>4.515588734165333</v>
+      </c>
+      <c r="R18">
+        <v>40.640298607488</v>
+      </c>
+      <c r="S18">
+        <v>0.0001392418533631483</v>
+      </c>
+      <c r="T18">
+        <v>0.0001397681047902591</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>39.80222300000001</v>
+      </c>
+      <c r="H19">
+        <v>119.406669</v>
+      </c>
+      <c r="I19">
+        <v>0.2932292783449848</v>
+      </c>
+      <c r="J19">
+        <v>0.2940865504976542</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>99.31538866666666</v>
+      </c>
+      <c r="N19">
+        <v>297.946166</v>
+      </c>
+      <c r="O19">
+        <v>0.4156922789371741</v>
+      </c>
+      <c r="P19">
+        <v>0.4160470119763526</v>
+      </c>
+      <c r="Q19">
+        <v>3952.97324704234</v>
+      </c>
+      <c r="R19">
+        <v>35576.75922338106</v>
+      </c>
+      <c r="S19">
+        <v>0.1218931469663297</v>
+      </c>
+      <c r="T19">
+        <v>0.1223538305969818</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>39.80222300000001</v>
+      </c>
+      <c r="H20">
+        <v>119.406669</v>
+      </c>
+      <c r="I20">
+        <v>0.2932292783449848</v>
+      </c>
+      <c r="J20">
+        <v>0.2940865504976542</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>138.7317683333333</v>
+      </c>
+      <c r="N20">
+        <v>416.195305</v>
+      </c>
+      <c r="O20">
+        <v>0.5806725998226211</v>
+      </c>
+      <c r="P20">
+        <v>0.5811681196254651</v>
+      </c>
+      <c r="Q20">
+        <v>5521.832780387672</v>
+      </c>
+      <c r="R20">
+        <v>49696.49502348904</v>
+      </c>
+      <c r="S20">
+        <v>0.1702702074006933</v>
+      </c>
+      <c r="T20">
+        <v>0.1709137275598611</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>39.80222300000001</v>
+      </c>
+      <c r="H21">
+        <v>119.406669</v>
+      </c>
+      <c r="I21">
+        <v>0.2932292783449848</v>
+      </c>
+      <c r="J21">
+        <v>0.2940865504976542</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.6111180000000001</v>
+      </c>
+      <c r="N21">
+        <v>1.222236</v>
+      </c>
+      <c r="O21">
+        <v>0.002557881890510999</v>
+      </c>
+      <c r="P21">
+        <v>0.001706709781021076</v>
+      </c>
+      <c r="Q21">
+        <v>24.323854915314</v>
+      </c>
+      <c r="R21">
+        <v>145.943129491884</v>
+      </c>
+      <c r="S21">
+        <v>0.0007500458608462456</v>
+      </c>
+      <c r="T21">
+        <v>0.0005019203922010952</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.1870385</v>
+      </c>
+      <c r="H22">
+        <v>2.374077</v>
+      </c>
+      <c r="I22">
+        <v>0.008745100561913671</v>
+      </c>
+      <c r="J22">
+        <v>0.005847111567493934</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1439186666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.431756</v>
+      </c>
+      <c r="O22">
+        <v>0.0006023827659685291</v>
+      </c>
+      <c r="P22">
+        <v>0.0006028968122478276</v>
+      </c>
+      <c r="Q22">
+        <v>0.170836998202</v>
+      </c>
+      <c r="R22">
+        <v>1.025021989212</v>
+      </c>
+      <c r="S22">
+        <v>5.267897865158495E-06</v>
+      </c>
+      <c r="T22">
+        <v>3.525204924899491E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.1870385</v>
+      </c>
+      <c r="H23">
+        <v>2.374077</v>
+      </c>
+      <c r="I23">
+        <v>0.008745100561913671</v>
+      </c>
+      <c r="J23">
+        <v>0.005847111567493934</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.1134506666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.340352</v>
+      </c>
+      <c r="O23">
+        <v>0.0004748565837253468</v>
+      </c>
+      <c r="P23">
+        <v>0.0004752618049133599</v>
+      </c>
+      <c r="Q23">
+        <v>0.134670309184</v>
+      </c>
+      <c r="R23">
+        <v>0.808021855104</v>
+      </c>
+      <c r="S23">
+        <v>4.152668577164936E-06</v>
+      </c>
+      <c r="T23">
+        <v>2.778908797096952E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.1870385</v>
+      </c>
+      <c r="H24">
+        <v>2.374077</v>
+      </c>
+      <c r="I24">
+        <v>0.008745100561913671</v>
+      </c>
+      <c r="J24">
+        <v>0.005847111567493934</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>99.31538866666666</v>
+      </c>
+      <c r="N24">
+        <v>297.946166</v>
+      </c>
+      <c r="O24">
+        <v>0.4156922789371741</v>
+      </c>
+      <c r="P24">
+        <v>0.4160470119763526</v>
+      </c>
+      <c r="Q24">
+        <v>117.891189989797</v>
+      </c>
+      <c r="R24">
+        <v>707.3471399387821</v>
+      </c>
+      <c r="S24">
+        <v>0.003635270782116655</v>
+      </c>
+      <c r="T24">
+        <v>0.002432673296348218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.1870385</v>
+      </c>
+      <c r="H25">
+        <v>2.374077</v>
+      </c>
+      <c r="I25">
+        <v>0.008745100561913671</v>
+      </c>
+      <c r="J25">
+        <v>0.005847111567493934</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>138.7317683333333</v>
+      </c>
+      <c r="N25">
+        <v>416.195305</v>
+      </c>
+      <c r="O25">
+        <v>0.5806725998226211</v>
+      </c>
+      <c r="P25">
+        <v>0.5811681196254651</v>
+      </c>
+      <c r="Q25">
+        <v>164.6799501847475</v>
+      </c>
+      <c r="R25">
+        <v>988.079701108485</v>
+      </c>
+      <c r="S25">
+        <v>0.005078040278996675</v>
+      </c>
+      <c r="T25">
+        <v>0.003398154834920755</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.1870385</v>
+      </c>
+      <c r="H26">
+        <v>2.374077</v>
+      </c>
+      <c r="I26">
+        <v>0.008745100561913671</v>
+      </c>
+      <c r="J26">
+        <v>0.005847111567493934</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.6111180000000001</v>
+      </c>
+      <c r="N26">
+        <v>1.222236</v>
+      </c>
+      <c r="O26">
+        <v>0.002557881890510999</v>
+      </c>
+      <c r="P26">
+        <v>0.001706709781021076</v>
+      </c>
+      <c r="Q26">
+        <v>0.7254205940430001</v>
+      </c>
+      <c r="R26">
+        <v>2.901682376172</v>
+      </c>
+      <c r="S26">
+        <v>2.236893435801654E-05</v>
+      </c>
+      <c r="T26">
+        <v>9.979322502963375E-06</v>
       </c>
     </row>
   </sheetData>
